--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFE34F-FF98-4A7D-A07F-32196B216B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A9AF3-0314-4A49-B005-55CBB354D98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Silom</t>
   </si>
@@ -172,28 +172,10 @@
     <t>RecruiterAsokeA</t>
   </si>
   <si>
-    <t>RecruiterAsokeB</t>
-  </si>
-  <si>
-    <t>RecruiterAsokeC</t>
-  </si>
-  <si>
-    <t>RecruiterAsokeD</t>
-  </si>
-  <si>
     <t>RecruiterPhuketE</t>
   </si>
   <si>
     <t>081-2345678</t>
-  </si>
-  <si>
-    <t>081-2345679</t>
-  </si>
-  <si>
-    <t>081-2345680</t>
-  </si>
-  <si>
-    <t>081-2345681</t>
   </si>
   <si>
     <t>081-2345683</t>
@@ -248,12 +230,6 @@
   </si>
   <si>
     <t>0827703801p@gmail.com</t>
-  </si>
-  <si>
-    <t>khunnapatt65@gmail.com</t>
-  </si>
-  <si>
-    <t>pemadee2546@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -663,7 +639,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -772,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1040,10 +1016,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,10 +1098,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1152,15 +1128,9 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1186,15 +1156,9 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1220,15 +1184,9 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1254,11 +1212,8 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="18"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1284,16 +1239,11 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>50</v>
+      <c r="A8" s="19" t="s">
+        <v>10</v>
       </c>
-      <c r="B8" s="18" t="str">
-        <f t="shared" ref="B5:B20" si="0">A8 &amp; "@mockup.com"</f>
-        <v>RecruiterPhuketE@mockup.com</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1319,11 +1269,16 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>11</v>
+      <c r="A9" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18" t="str">
+        <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
+        <v>RecruiterPhuketE@mockup.com</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -1349,16 +1304,11 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>64</v>
+      <c r="A10" s="20" t="s">
+        <v>11</v>
       </c>
-      <c r="B10" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterPattayaF@mockup.com</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1384,11 +1334,16 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>12</v>
+      <c r="A11" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>RecruiterPattayaF@mockup.com</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1414,16 +1369,11 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>65</v>
+      <c r="A12" s="21" t="s">
+        <v>12</v>
       </c>
-      <c r="B12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterSamuiG@mockup.com</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1449,11 +1399,16 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>13</v>
+      <c r="A13" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>RecruiterSamuiG@mockup.com</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1479,16 +1434,11 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>66</v>
+      <c r="A14" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="B14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterHuahinH@mockup.com</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1514,11 +1464,16 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>14</v>
+      <c r="A15" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>RecruiterHuahinH@mockup.com</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1544,16 +1499,11 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>67</v>
+      <c r="A16" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="B16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterChiangmaiI@mockup.com</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1580,14 +1530,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>RecruiterChiangmaiJ@mockup.com</v>
+        <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1615,14 +1565,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>RecruiterChiangmaiK@mockup.com</v>
+        <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1650,14 +1600,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>RecruiterChiangmaiL@mockup.com</v>
+        <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1685,14 +1635,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>RecruiterChiangmaiM@mockup.com</v>
+        <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1719,9 +1669,16 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>RecruiterChiangmaiM@mockup.com</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -28990,6 +28947,34 @@
       <c r="Y994" s="17"/>
       <c r="Z994" s="17"/>
     </row>
+    <row r="995" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A995" s="17"/>
+      <c r="B995" s="17"/>
+      <c r="C995" s="17"/>
+      <c r="D995" s="17"/>
+      <c r="E995" s="17"/>
+      <c r="F995" s="17"/>
+      <c r="G995" s="17"/>
+      <c r="H995" s="17"/>
+      <c r="I995" s="17"/>
+      <c r="J995" s="17"/>
+      <c r="K995" s="17"/>
+      <c r="L995" s="17"/>
+      <c r="M995" s="17"/>
+      <c r="N995" s="17"/>
+      <c r="O995" s="17"/>
+      <c r="P995" s="17"/>
+      <c r="Q995" s="17"/>
+      <c r="R995" s="17"/>
+      <c r="S995" s="17"/>
+      <c r="T995" s="17"/>
+      <c r="U995" s="17"/>
+      <c r="V995" s="17"/>
+      <c r="W995" s="17"/>
+      <c r="X995" s="17"/>
+      <c r="Y995" s="17"/>
+      <c r="Z995" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A9AF3-0314-4A49-B005-55CBB354D98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D39BD0-CD14-4775-ABAD-DE0D9BD42B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>Silom</t>
   </si>
@@ -172,10 +172,28 @@
     <t>RecruiterAsokeA</t>
   </si>
   <si>
+    <t>RecruiterAsokeB</t>
+  </si>
+  <si>
+    <t>RecruiterAsokeC</t>
+  </si>
+  <si>
+    <t>RecruiterAsokeD</t>
+  </si>
+  <si>
     <t>RecruiterPhuketE</t>
   </si>
   <si>
     <t>081-2345678</t>
+  </si>
+  <si>
+    <t>081-2345679</t>
+  </si>
+  <si>
+    <t>081-2345680</t>
+  </si>
+  <si>
+    <t>081-2345681</t>
   </si>
   <si>
     <t>081-2345683</t>
@@ -230,6 +248,18 @@
   </si>
   <si>
     <t>0827703801p@gmail.com</t>
+  </si>
+  <si>
+    <t>khunnapatt65@gmail.com</t>
+  </si>
+  <si>
+    <t>pemadee2546@gmail.com</t>
+  </si>
+  <si>
+    <t>nonlaneeud@gmail.com</t>
+  </si>
+  <si>
+    <t>RecruiterAsokeAdded</t>
   </si>
 </sst>
 </file>
@@ -638,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1018,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1098,10 +1128,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1128,9 +1158,15 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1156,9 +1192,15 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1184,9 +1226,15 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1212,8 +1260,15 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1270,14 +1325,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1335,14 +1390,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1400,14 +1455,14 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterSamuiG@mockup.com</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1465,14 +1520,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterHuahinH@mockup.com</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1530,14 +1585,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1565,14 +1620,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1600,14 +1655,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1635,14 +1690,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1670,14 +1725,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D39BD0-CD14-4775-ABAD-DE0D9BD42B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49532ACC-E124-4C3E-A02D-ABD9757372E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>AsokeC</t>
   </si>
   <si>
-    <t>AsokeD</t>
-  </si>
-  <si>
     <t>AsokeE</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>C@mockup.com</t>
   </si>
   <si>
-    <t>D@mockup.com</t>
-  </si>
-  <si>
     <t>F@mockup.com</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>RecruiterAsokeC</t>
-  </si>
-  <si>
-    <t>RecruiterAsokeD</t>
   </si>
   <si>
     <t>RecruiterPhuketE</t>
@@ -260,6 +251,15 @@
   </si>
   <si>
     <t>RecruiterAsokeAdded</t>
+  </si>
+  <si>
+    <t>nonlanee</t>
+  </si>
+  <si>
+    <t>panupongpr3841@gmail.com</t>
+  </si>
+  <si>
+    <t>panupong</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
@@ -719,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5">
         <v>4</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>74</v>
+      <c r="B5" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>74</v>
+      <c r="B6" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>75</v>
+      <c r="B7" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1325,14 +1325,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1390,14 +1390,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1455,14 +1455,14 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterSamuiG@mockup.com</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1520,14 +1520,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterHuahinH@mockup.com</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1585,14 +1585,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1620,14 +1620,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1655,14 +1655,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1690,14 +1690,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1725,14 +1725,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -29032,6 +29032,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49532ACC-E124-4C3E-A02D-ABD9757372E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF84A1-D03F-4FC5-9340-2F3A01E0F5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>AsokeC</t>
   </si>
   <si>
-    <t>AsokeE</t>
-  </si>
-  <si>
     <t>AsokeF</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>RecruiterAsokeA</t>
-  </si>
-  <si>
-    <t>RecruiterAsokeB</t>
   </si>
   <si>
     <t>RecruiterAsokeC</t>
@@ -260,6 +254,12 @@
   </si>
   <si>
     <t>panupong</t>
+  </si>
+  <si>
+    <t>Pemadee</t>
+  </si>
+  <si>
+    <t>Khunnapat</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
@@ -719,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>69</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>4</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1325,14 +1325,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1390,14 +1390,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1455,14 +1455,14 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterSamuiG@mockup.com</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1520,14 +1520,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterHuahinH@mockup.com</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1585,14 +1585,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1620,14 +1620,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1655,14 +1655,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1690,14 +1690,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1725,14 +1725,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF84A1-D03F-4FC5-9340-2F3A01E0F5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E9766-91D8-4F8B-A61E-081D82994C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29033,9 +29033,9 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E9766-91D8-4F8B-A61E-081D82994C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A17229-197A-4F99-89B5-F16488842584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>Silom</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>K@mockup.com</t>
-  </si>
-  <si>
-    <t>L@mockup.com</t>
   </si>
   <si>
     <t>M@mockup.com</t>
@@ -669,7 +666,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,10 +755,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -775,10 +772,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -921,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -946,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -963,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
@@ -988,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -1005,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
@@ -1027,15 +1024,15 @@
     <hyperlink ref="B8" r:id="rId6" xr:uid="{711506AF-CA03-434A-A11C-B32CA2CA6B56}"/>
     <hyperlink ref="B10:B13" r:id="rId7" display="B@mockup.com" xr:uid="{EE35E3DF-F1B4-4690-85DF-F18056494550}"/>
     <hyperlink ref="B15" r:id="rId8" xr:uid="{3C083FB7-54D4-40C3-BF84-F60507542EA8}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{8B8C877E-CF3C-4614-876B-BBFE79755B93}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{B2A1B6D2-94C0-4AF6-A16B-1D714ABE7A08}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{E0B7EE1F-D684-4766-8BDA-938D747319B0}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{4217C318-D801-475D-B91E-A20190B03BF8}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{6D70D49D-C3C2-46F1-B74C-B4CBDD946850}"/>
-    <hyperlink ref="B10" r:id="rId14" xr:uid="{4E5AFCE6-00B1-4840-8D0E-ED422574D417}"/>
-    <hyperlink ref="B11" r:id="rId15" xr:uid="{5E2D272C-62F0-43AC-97B0-F065E64923A0}"/>
-    <hyperlink ref="B12" r:id="rId16" xr:uid="{A289DC81-8133-4E8F-9665-B36F97BF2FFB}"/>
-    <hyperlink ref="B13" r:id="rId17" xr:uid="{F897B959-F075-4A98-A01E-FA47B2C0A36A}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{B2A1B6D2-94C0-4AF6-A16B-1D714ABE7A08}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{E0B7EE1F-D684-4766-8BDA-938D747319B0}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{4217C318-D801-475D-B91E-A20190B03BF8}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{6D70D49D-C3C2-46F1-B74C-B4CBDD946850}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{4E5AFCE6-00B1-4840-8D0E-ED422574D417}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{5E2D272C-62F0-43AC-97B0-F065E64923A0}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{A289DC81-8133-4E8F-9665-B36F97BF2FFB}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{F897B959-F075-4A98-A01E-FA47B2C0A36A}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{576E7977-D703-4604-96C0-A84D565D2AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1049,7 +1046,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1122,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1159,13 +1156,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1193,13 +1190,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1227,13 +1224,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1261,13 +1258,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1325,14 +1322,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1390,14 +1387,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1455,14 +1452,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="B13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterSamuiG@mockup.com</v>
+      <c r="B13" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1520,14 +1516,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterHuahinH@mockup.com</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1585,14 +1581,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1620,14 +1616,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1655,14 +1651,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1690,14 +1686,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1725,14 +1721,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -29036,6 +29032,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{ADD35423-BF17-4B0F-B40C-FA66A014E98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\botnoiTN\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF84A1-D03F-4FC5-9340-2F3A01E0F5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01215FD3-CAC0-4C08-8451-11AADC04DF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>Silom</t>
   </si>
@@ -235,9 +235,6 @@
     <t>0827703801p@gmail.com</t>
   </si>
   <si>
-    <t>khunnapatt65@gmail.com</t>
-  </si>
-  <si>
     <t>pemadee2546@gmail.com</t>
   </si>
   <si>
@@ -259,7 +256,10 @@
     <t>Pemadee</t>
   </si>
   <si>
-    <t>Khunnapat</t>
+    <t>panupongnu4@gmail.com</t>
+  </si>
+  <si>
+    <t>nu4</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -747,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -758,30 +758,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
+      <c r="E6" s="6">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -798,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -823,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
@@ -840,7 +840,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -857,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
@@ -874,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -924,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
@@ -949,7 +949,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
@@ -991,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1161,8 @@
       <c r="A4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>68</v>
+      <c r="B4" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>47</v>
@@ -1196,7 +1196,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>48</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>49</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -29036,6 +29036,7 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{A780D158-8CEE-41AC-B973-02E0835D50CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\botnoiTN\calendarAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01215FD3-CAC0-4C08-8451-11AADC04DF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340A3613-0412-428A-B750-010BD5F4BC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Silom</t>
   </si>
@@ -145,9 +145,6 @@
     <t>K@mockup.com</t>
   </si>
   <si>
-    <t>L@mockup.com</t>
-  </si>
-  <si>
     <t>M@mockup.com</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t>0827703801p@gmail.com</t>
   </si>
   <si>
+    <t>khunnapatt65@gmail.com</t>
+  </si>
+  <si>
     <t>pemadee2546@gmail.com</t>
   </si>
   <si>
@@ -256,10 +256,7 @@
     <t>Pemadee</t>
   </si>
   <si>
-    <t>panupongnu4@gmail.com</t>
-  </si>
-  <si>
-    <t>nu4</t>
+    <t>Khunnapat</t>
   </si>
 </sst>
 </file>
@@ -668,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -769,8 +766,8 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6">
-        <v>47</v>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
@@ -929,8 +926,8 @@
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
+      <c r="E17" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -963,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -988,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -1005,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -1027,15 +1024,15 @@
     <hyperlink ref="B8" r:id="rId6" xr:uid="{711506AF-CA03-434A-A11C-B32CA2CA6B56}"/>
     <hyperlink ref="B10:B13" r:id="rId7" display="B@mockup.com" xr:uid="{EE35E3DF-F1B4-4690-85DF-F18056494550}"/>
     <hyperlink ref="B15" r:id="rId8" xr:uid="{3C083FB7-54D4-40C3-BF84-F60507542EA8}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{8B8C877E-CF3C-4614-876B-BBFE79755B93}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{B2A1B6D2-94C0-4AF6-A16B-1D714ABE7A08}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{E0B7EE1F-D684-4766-8BDA-938D747319B0}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{4217C318-D801-475D-B91E-A20190B03BF8}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{6D70D49D-C3C2-46F1-B74C-B4CBDD946850}"/>
-    <hyperlink ref="B10" r:id="rId14" xr:uid="{4E5AFCE6-00B1-4840-8D0E-ED422574D417}"/>
-    <hyperlink ref="B11" r:id="rId15" xr:uid="{5E2D272C-62F0-43AC-97B0-F065E64923A0}"/>
-    <hyperlink ref="B12" r:id="rId16" xr:uid="{A289DC81-8133-4E8F-9665-B36F97BF2FFB}"/>
-    <hyperlink ref="B13" r:id="rId17" xr:uid="{F897B959-F075-4A98-A01E-FA47B2C0A36A}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{B2A1B6D2-94C0-4AF6-A16B-1D714ABE7A08}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{E0B7EE1F-D684-4766-8BDA-938D747319B0}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{4217C318-D801-475D-B91E-A20190B03BF8}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{6D70D49D-C3C2-46F1-B74C-B4CBDD946850}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{4E5AFCE6-00B1-4840-8D0E-ED422574D417}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{5E2D272C-62F0-43AC-97B0-F065E64923A0}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{A289DC81-8133-4E8F-9665-B36F97BF2FFB}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{F897B959-F075-4A98-A01E-FA47B2C0A36A}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{576E7977-D703-4604-96C0-A84D565D2AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1122,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1159,13 +1156,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
+      <c r="B4" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1193,13 +1190,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1233,7 +1230,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1267,7 +1264,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1325,14 +1322,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1390,14 +1387,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1455,14 +1452,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="B13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterSamuiG@mockup.com</v>
+      <c r="B13" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1520,14 +1516,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterHuahinH@mockup.com</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1585,14 +1581,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1620,14 +1616,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1655,14 +1651,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1690,14 +1686,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1725,14 +1721,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -29033,10 +29029,9 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{A780D158-8CEE-41AC-B973-02E0835D50CC}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งาน\ฝึกงาน BOTNOI\calendarAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\botnoiTN\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340A3613-0412-428A-B750-010BD5F4BC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB26B2-D487-4C1B-8426-0FABC747C7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Silom</t>
   </si>
@@ -145,9 +145,6 @@
     <t>K@mockup.com</t>
   </si>
   <si>
-    <t>M@mockup.com</t>
-  </si>
-  <si>
     <t>N@mockup.com</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Khunnapat</t>
+  </si>
+  <si>
+    <t>panupongnu4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,10 +755,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -766,16 +766,16 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
+      <c r="E6" s="6">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -918,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -951,8 +951,8 @@
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>6</v>
+      <c r="E19" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -985,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -1002,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1322,14 +1322,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1387,14 +1387,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1516,14 +1516,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="B15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>RecruiterHuahinH@mockup.com</v>
+      <c r="B15" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1581,14 +1580,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1616,14 +1615,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1651,14 +1650,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1686,14 +1685,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1721,14 +1720,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -29032,6 +29031,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{FC5FD774-7CC6-4EDC-BD22-7522D421BB78}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{23DAC81B-1342-4CEE-89F1-6BF0B5FB02B0}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{31A93216-10CA-4192-A918-EB023B2FB873}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{8C6971E8-88D9-44EA-8D37-738B49CF288F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\botnoiTN\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB26B2-D487-4C1B-8426-0FABC747C7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D797D08-5E02-492E-A0CB-FC107842CC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="R" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
-  <si>
-    <t>Silom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Email</t>
   </si>
@@ -55,25 +53,7 @@
     <t>Non - strong exp.</t>
   </si>
   <si>
-    <t>Asoke</t>
-  </si>
-  <si>
     <t>up ot 35</t>
-  </si>
-  <si>
-    <t>Phuket</t>
-  </si>
-  <si>
-    <t>Pattaya</t>
-  </si>
-  <si>
-    <t>Samui</t>
-  </si>
-  <si>
-    <t>Huahin</t>
-  </si>
-  <si>
-    <t>Chiangmai</t>
   </si>
   <si>
     <t>Tel</t>
@@ -257,6 +237,30 @@
   </si>
   <si>
     <t>panupongnu4@gmail.com</t>
+  </si>
+  <si>
+    <t>อโศก</t>
+  </si>
+  <si>
+    <t>สีลม</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>พัทยา</t>
+  </si>
+  <si>
+    <t>สมุย</t>
+  </si>
+  <si>
+    <t>หัวหิน</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>เขียงใหม่</t>
   </si>
 </sst>
 </file>
@@ -665,9 +669,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -679,58 +681,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -738,75 +740,75 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -814,75 +816,75 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -890,24 +892,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -915,24 +917,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="E17" s="7">
-        <v>25</v>
+      <c r="E17" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -940,41 +942,41 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="E19" s="7">
-        <v>40</v>
+      <c r="E19" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -982,36 +984,36 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1045,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1092,7 +1094,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1122,13 +1124,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1156,13 +1158,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1190,13 +1192,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1224,13 +1226,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1258,13 +1260,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1292,7 +1294,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1322,14 +1324,14 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="18" t="str">
         <f t="shared" ref="B9:B21" si="0">A9 &amp; "@mockup.com"</f>
         <v>RecruiterPhuketE@mockup.com</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1387,14 +1389,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterPattayaF@mockup.com</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1422,7 +1424,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1452,13 +1454,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1486,7 +1488,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1516,13 +1518,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1550,7 +1552,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1580,14 +1582,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiI@mockup.com</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1615,14 +1617,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiJ@mockup.com</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1650,14 +1652,14 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiK@mockup.com</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1685,14 +1687,14 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiL@mockup.com</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1720,14 +1722,14 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RecruiterChiangmaiM@mockup.com</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>

--- a/TESTt.xlsx
+++ b/TESTt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\botnoiTN\calendarAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B85EA2-3E2D-491D-8FB1-A551A09EF81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E8847-883B-403E-93D9-92DCCA3FA55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="R" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>Email</t>
   </si>
@@ -255,6 +254,9 @@
   </si>
   <si>
     <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>dekapokza004@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -663,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1261,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
